--- a/eg3 adavanced.xlsx
+++ b/eg3 adavanced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B3D91E-7106-F646-B419-947A74DC03B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8429BF9-3F58-6841-B441-25F062BADA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19920" activeTab="2" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="51580" yWindow="5600" windowWidth="34560" windowHeight="19920" activeTab="2" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -2552,7 +2552,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" ref="A36:P42" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
+        <f t="shared" ref="A36:P41" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>2</v>
       </c>
       <c r="B36">
@@ -5703,7 +5703,7 @@
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12933,7 +12933,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <f t="shared" ref="A36:P42" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
+        <f t="shared" ref="A36:P41" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B36" s="1">
@@ -21283,7 +21283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55E0C2B-C766-7C43-9790-D95441714A70}">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>

--- a/eg3 adavanced.xlsx
+++ b/eg3 adavanced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741AC827-88CC-A148-BD00-F83C8EFF4770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB495627-C15C-6544-9CD5-E37808882F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" activeTab="8" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
@@ -107,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,6 +116,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -142,12 +149,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,7 +496,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -502,7 +513,7 @@
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +560,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -596,7 +607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -643,7 +654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -690,7 +701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -737,7 +748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -784,7 +795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -831,7 +842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -878,7 +889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -925,195 +936,195 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>4</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <v>6.3522143852636894E-5</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <v>6.5888442708107495E-5</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="5">
         <v>9</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="7">
         <v>0.25</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="7">
         <v>0.97560971975326505</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="G10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>4</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="6">
         <v>6.3854424955392695E-5</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <v>6.5199511037133804E-5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="5">
         <v>10</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="7">
         <v>0.25</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="7">
         <v>0.97560971975326505</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="G11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="6">
         <v>6.42719146429605E-5</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="6">
         <v>6.4573331559237903E-5</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="5">
         <v>11</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="7">
         <v>0.25</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="7">
         <v>0.97560971975326505</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="G12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>4</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="6">
         <v>6.3070595794496005E-5</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="6">
         <v>6.4799560432413897E-5</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="5">
         <v>12</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="7">
         <v>0.25</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="7">
         <v>0.97560971975326505</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -1160,7 +1171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>8</v>
       </c>
@@ -1207,7 +1218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>8</v>
       </c>
@@ -1254,7 +1265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>8</v>
       </c>
@@ -1301,7 +1312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1348,7 +1359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1395,7 +1406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1442,7 +1453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>16</v>
       </c>
@@ -1489,7 +1500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>32</v>
       </c>
@@ -1536,7 +1547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>32</v>
       </c>
@@ -1583,7 +1594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>32</v>
       </c>
@@ -1630,7 +1641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>32</v>
       </c>
@@ -1677,7 +1688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>64</v>
       </c>
@@ -1724,7 +1735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>64</v>
       </c>
@@ -1771,7 +1782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>64</v>
       </c>
@@ -1818,7 +1829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>64</v>
       </c>
@@ -1865,7 +1876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>128</v>
       </c>
@@ -1912,7 +1923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>128</v>
       </c>
@@ -1959,7 +1970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>128</v>
       </c>
@@ -2006,7 +2017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>128</v>
       </c>
@@ -2053,7 +2064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>1</v>
@@ -2115,7 +2126,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <f t="shared" ref="A36:O41" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>2</v>
@@ -2177,69 +2188,69 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>6.3679769811371534E-5</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>6.5115211434223281E-5</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>0.97560971975326505</v>
       </c>
-      <c r="G37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G37" s="5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" s="5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L37" s="5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" s="5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O37" s="5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>8</v>
@@ -2301,7 +2312,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>16</v>
@@ -2363,7 +2374,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>32</v>
@@ -2425,7 +2436,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>64</v>
@@ -2487,7 +2498,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>128</v>
@@ -2549,21 +2560,11 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="4"/>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C43" s="4">
         <f ca="1">MIN(C35:C42)</f>
         <v>6.4833591798734631E-5</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2576,7 +2577,7 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2588,7 +2589,7 @@
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2635,7 +2636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2682,7 +2683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2729,7 +2730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2776,7 +2777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2823,7 +2824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -2870,7 +2871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -2917,7 +2918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -2964,7 +2965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -3011,195 +3012,195 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>4</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <v>6.40469780650009E-5</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <v>6.5469062742232206E-5</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="5">
         <v>41</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="7">
         <v>0.5</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="7">
         <v>0.97560971975326505</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="G10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>4</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="6">
         <v>6.4358953711641097E-5</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <v>6.4880971780091403E-5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="5">
         <v>42</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="7">
         <v>0.5</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="7">
         <v>0.97560971975326505</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="G11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="6">
         <v>6.4345432776385497E-5</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="6">
         <v>6.4264528849347906E-5</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="5">
         <v>43</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="7">
         <v>0.5</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="7">
         <v>0.97560971975326505</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="G12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>4</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="6">
         <v>6.3679676172119094E-5</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="6">
         <v>6.4348444597116895E-5</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="5">
         <v>44</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="7">
         <v>0.5</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="7">
         <v>0.97560971975326505</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -3246,7 +3247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>8</v>
       </c>
@@ -3293,7 +3294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>8</v>
       </c>
@@ -3340,7 +3341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>8</v>
       </c>
@@ -3387,7 +3388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3434,7 +3435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -3481,7 +3482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -3528,7 +3529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>16</v>
       </c>
@@ -3575,7 +3576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>32</v>
       </c>
@@ -3622,7 +3623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>32</v>
       </c>
@@ -3669,7 +3670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>32</v>
       </c>
@@ -3716,7 +3717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>32</v>
       </c>
@@ -3763,7 +3764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>64</v>
       </c>
@@ -3810,7 +3811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>64</v>
       </c>
@@ -3857,7 +3858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>64</v>
       </c>
@@ -3904,7 +3905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>64</v>
       </c>
@@ -3951,7 +3952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>128</v>
       </c>
@@ -3998,7 +3999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>128</v>
       </c>
@@ -4045,7 +4046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>128</v>
       </c>
@@ -4092,7 +4093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>128</v>
       </c>
@@ -4139,7 +4140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>1</v>
@@ -4201,7 +4202,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <f t="shared" ref="A36:O42" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>2</v>
@@ -4263,69 +4264,69 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="37" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>6.4107760181286654E-5</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>6.4740751992197103E-5</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>42.5</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>0.97560971975326505</v>
       </c>
-      <c r="G37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G37" s="5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" s="5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L37" s="5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" s="5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O37" s="5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>8</v>
@@ -4387,7 +4388,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>16</v>
@@ -4449,7 +4450,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>32</v>
@@ -4511,7 +4512,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>64</v>
@@ -4573,7 +4574,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>128</v>
@@ -4644,8 +4645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C910F4E5-1871-5D44-A4D1-B4921F11A929}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4657,7 +4658,7 @@
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4704,7 +4705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4751,7 +4752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4798,7 +4799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4845,7 +4846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -4892,7 +4893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -4939,7 +4940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -4986,7 +4987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -5033,7 +5034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -5080,195 +5081,195 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>4</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <v>6.3993643406623304E-5</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <v>6.4982794472288801E-5</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="5">
         <v>73</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="7">
         <v>0.97560971975326505</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="7">
         <v>0.37897525259877102</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="I10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="7">
         <v>0.33830002716931201</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="K10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="7">
         <v>0.63180804252624501</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="1">
+      <c r="M10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="5">
         <v>9.0555951595306396</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="O10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>4</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="6">
         <v>6.4256784292714001E-5</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <v>6.4660422681976897E-5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="5">
         <v>74</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="7">
         <v>0.97560971975326505</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="G11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="7">
         <v>0.378955554660656</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="3">
+      <c r="I11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="7">
         <v>0.33821347377451799</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="3">
+      <c r="K11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="7">
         <v>0.63227510452270497</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="1">
+      <c r="M11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="5">
         <v>8.9711711406707693</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="O11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="6">
         <v>6.4446821265543499E-5</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="6">
         <v>6.3997757101884702E-5</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="5">
         <v>75</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="7">
         <v>1</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="7">
         <v>0.97560971975326505</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="G12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7">
         <v>0.37847591189319701</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="I12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="7">
         <v>0.338173165202166</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="K12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="7">
         <v>0.63200592994689897</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="1">
+      <c r="M12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="5">
         <v>9.1032040119171107</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="O12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>4</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="6">
         <v>6.4256935128165999E-5</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="6">
         <v>6.4201294391866805E-5</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="5">
         <v>76</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="7">
         <v>1</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="7">
         <v>0.97560971975326505</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="G13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="7">
         <v>0.37838264599094601</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="3">
+      <c r="I13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="7">
         <v>0.33839085347207898</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="3">
+      <c r="K13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="7">
         <v>0.65960621833801203</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="M13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="5">
         <v>8.9056792259216309</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -5315,7 +5316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>8</v>
       </c>
@@ -5362,7 +5363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>8</v>
       </c>
@@ -5409,7 +5410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>8</v>
       </c>
@@ -5456,7 +5457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5503,7 +5504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -5550,7 +5551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5597,7 +5598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>16</v>
       </c>
@@ -5644,7 +5645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>32</v>
       </c>
@@ -5691,7 +5692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>32</v>
       </c>
@@ -5738,7 +5739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>32</v>
       </c>
@@ -5785,7 +5786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>32</v>
       </c>
@@ -5832,7 +5833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>64</v>
       </c>
@@ -5879,7 +5880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>64</v>
       </c>
@@ -5926,7 +5927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>64</v>
       </c>
@@ -5973,7 +5974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>64</v>
       </c>
@@ -6020,7 +6021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>128</v>
       </c>
@@ -6067,7 +6068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>128</v>
       </c>
@@ -6114,7 +6115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>128</v>
       </c>
@@ -6161,7 +6162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>128</v>
       </c>
@@ -6208,7 +6209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>1</v>
@@ -6270,7 +6271,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <f t="shared" ref="A36:O42" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>2</v>
@@ -6332,69 +6333,69 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="37" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>6.4238546023261697E-5</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>6.4460567162004295E-5</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>74.5</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>0.97560971975326505</v>
       </c>
-      <c r="G37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="1">
+      <c r="G37" s="5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>0.37869734128589255</v>
       </c>
-      <c r="I37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J37" s="1">
+      <c r="I37" s="5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>0.33826937990451872</v>
       </c>
-      <c r="K37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L37" s="1">
+      <c r="K37" s="5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L37" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>0.63892382383346524</v>
       </c>
-      <c r="M37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N37" s="1">
+      <c r="M37" s="5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>9.0089123845100367</v>
       </c>
-      <c r="O37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O37" s="5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>8</v>
@@ -6456,7 +6457,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>16</v>
@@ -6518,7 +6519,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>32</v>
@@ -6580,7 +6581,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>64</v>
@@ -6642,7 +6643,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>128</v>
@@ -6704,24 +6705,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="4"/>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C43" s="4">
         <f ca="1">MIN(C35:C42)</f>
         <v>6.3531870753340226E-5</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -6730,7 +6722,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6742,7 +6734,7 @@
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -6789,195 +6781,195 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
         <v>1E-8</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>6.4597459873147394E-5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6">
         <v>6.6287483469808497E-5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>97</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="7">
         <v>0.25</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="7">
         <v>2.4473328590393</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
         <v>1E-8</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>6.4816171753262299E-5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>6.5513695130419407E-5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <v>98</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="7">
         <v>0.25</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="7">
         <v>3.92148756980896</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="G3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
         <v>1E-8</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>6.5129837279760301E-5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>6.4817132024859794E-5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>99</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
         <v>0.25</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="7">
         <v>3.4417247772216699</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="G4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
         <v>1E-8</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="6">
         <v>6.4249953055045894E-5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>6.5234431453876403E-5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>100</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
         <v>0.25</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="7">
         <v>3.42959260940551</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -7024,7 +7016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -7071,7 +7063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -7118,7 +7110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -7165,7 +7157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -7212,7 +7204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -7259,7 +7251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -7306,7 +7298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -7353,7 +7345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -7400,7 +7392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -7447,7 +7439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -7494,7 +7486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -7541,7 +7533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1E-4</v>
       </c>
@@ -7588,7 +7580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1E-4</v>
       </c>
@@ -7635,7 +7627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1E-4</v>
       </c>
@@ -7682,7 +7674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1E-4</v>
       </c>
@@ -7729,7 +7721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1E-3</v>
       </c>
@@ -7776,7 +7768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1E-3</v>
       </c>
@@ -7823,7 +7815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1E-3</v>
       </c>
@@ -7870,7 +7862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1E-3</v>
       </c>
@@ -7917,7 +7909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>0.01</v>
       </c>
@@ -7964,7 +7956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>0.01</v>
       </c>
@@ -8011,7 +8003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>0.01</v>
       </c>
@@ -8058,7 +8050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>0.01</v>
       </c>
@@ -8105,7 +8097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>0.1</v>
       </c>
@@ -8152,7 +8144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>0.1</v>
       </c>
@@ -8199,7 +8191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>0.1</v>
       </c>
@@ -8246,7 +8238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>0.1</v>
       </c>
@@ -8293,69 +8285,69 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+    <row r="35" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
         <f t="shared" ref="A35:O42" ca="1" si="0">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>1E-8</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>6.4698355490303979E-5</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>6.5463185519741015E-5</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>98.5</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>3.3100344538688597</v>
       </c>
-      <c r="G35" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J35" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K35" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L35" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M35" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N35" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O35" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G35" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L35" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N35" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O35" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>9.9999999999999995E-8</v>
@@ -8364,7 +8356,7 @@
         <f t="shared" ref="B36:O42" ca="1" si="1">AVERAGE(OFFSET(B$2,(ROW()-35)*4,0,4,1))</f>
         <v>6.4910073182003751E-5</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>6.5519813427059427E-5</v>
       </c>
@@ -8417,7 +8409,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>9.9999999999999995E-7</v>
@@ -8426,7 +8418,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>6.5727153730435028E-5</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>6.5915898640594807E-5</v>
       </c>
@@ -8479,7 +8471,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>1.0000000000000001E-5</v>
@@ -8488,7 +8480,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.8951527819742094E-4</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>3.8985735398726178E-4</v>
       </c>
@@ -8541,7 +8533,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>1E-4</v>
@@ -8550,7 +8542,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>8.2241719838806399E-4</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>8.2492434058680181E-4</v>
       </c>
@@ -8603,7 +8595,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>1E-3</v>
@@ -8612,7 +8604,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>8.2254586766097393E-4</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>8.2493095892169376E-4</v>
       </c>
@@ -8665,7 +8657,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>0.01</v>
@@ -8674,7 +8666,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>8.2255146689737724E-4</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>8.2493253656603521E-4</v>
       </c>
@@ -8727,7 +8719,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>0.1</v>
@@ -8736,7 +8728,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>8.2255241648724968E-4</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>8.2493288797930706E-4</v>
       </c>
@@ -8789,25 +8781,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="4"/>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C43" s="4">
         <f ca="1">MIN(C35:C42)</f>
         <v>6.5463185519741015E-5</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -8816,7 +8798,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8828,7 +8810,7 @@
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -8875,195 +8857,195 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
         <v>1E-8</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>6.4703848751223404E-5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6">
         <v>6.5801919264869903E-5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>129</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="7">
         <v>0.5</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="7">
         <v>2.76611995697021</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
         <v>1E-8</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>6.4623139552806696E-5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>6.5164325899380102E-5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <v>130</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="7">
         <v>0.5</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="7">
         <v>3.5177431106567298</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="G3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
         <v>1E-8</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>6.4849801829234603E-5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>6.4519136821160003E-5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>131</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
         <v>0.5</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="7">
         <v>3.1883525848388601</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="G4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
         <v>1E-8</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="6">
         <v>6.4607063421212902E-5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>6.4860934682965695E-5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>132</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
         <v>0.5</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="7">
         <v>3.14567923545837</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -9110,7 +9092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -9157,7 +9139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -9204,7 +9186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -9251,7 +9233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -9298,7 +9280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -9345,7 +9327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -9392,7 +9374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -9439,7 +9421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -9486,7 +9468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -9533,7 +9515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -9580,7 +9562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -9627,7 +9609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1E-4</v>
       </c>
@@ -9674,7 +9656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1E-4</v>
       </c>
@@ -9721,7 +9703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1E-4</v>
       </c>
@@ -9768,7 +9750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1E-4</v>
       </c>
@@ -9815,7 +9797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1E-3</v>
       </c>
@@ -9862,7 +9844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1E-3</v>
       </c>
@@ -9909,7 +9891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1E-3</v>
       </c>
@@ -9956,7 +9938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1E-3</v>
       </c>
@@ -10003,7 +9985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>0.01</v>
       </c>
@@ -10050,7 +10032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>0.01</v>
       </c>
@@ -10097,7 +10079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>0.01</v>
       </c>
@@ -10144,7 +10126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>0.01</v>
       </c>
@@ -10191,7 +10173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>0.1</v>
       </c>
@@ -10238,7 +10220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>0.1</v>
       </c>
@@ -10285,7 +10267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>0.1</v>
       </c>
@@ -10332,7 +10314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>0.1</v>
       </c>
@@ -10379,69 +10361,69 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+    <row r="35" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>1E-8</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="8">
         <f t="shared" ref="B35:O42" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-35)*4,0,4,1))</f>
         <v>6.4695963388619398E-5</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>6.5086579167093929E-5</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>130.5</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>3.1544737219810424</v>
       </c>
-      <c r="G35" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J35" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K35" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L35" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M35" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N35" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O35" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G35" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L35" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N35" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O35" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <f t="shared" ref="A36:O41" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>9.9999999999999995E-8</v>
@@ -10450,7 +10432,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>6.5022564943687224E-5</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>6.524682817627683E-5</v>
       </c>
@@ -10503,7 +10485,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>9.9999999999999995E-7</v>
@@ -10512,7 +10494,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>6.5820492573812796E-5</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>6.5723722003740249E-5</v>
       </c>
@@ -10565,7 +10547,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>1.0000000000000001E-5</v>
@@ -10574,7 +10556,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>3.909508235026685E-4</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>3.8983959152670956E-4</v>
       </c>
@@ -10627,7 +10609,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>1E-4</v>
@@ -10636,7 +10618,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>8.2123704348130997E-4</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>8.2492637382993611E-4</v>
       </c>
@@ -10689,7 +10671,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>1E-3</v>
@@ -10698,7 +10680,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>8.2124324654479124E-4</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>8.2492847038938212E-4</v>
       </c>
@@ -10751,7 +10733,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>0.01</v>
@@ -10760,7 +10742,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>8.2124929340739498E-4</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>8.2493338584057707E-4</v>
       </c>
@@ -10813,7 +10795,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>0.1</v>
@@ -10822,7 +10804,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>8.2124949218036474E-4</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>8.2493339543864876E-4</v>
       </c>
@@ -10875,25 +10857,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="4"/>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C43" s="4">
         <f ca="1">MIN(C35:C42)</f>
         <v>6.5086579167093929E-5</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -10901,8 +10873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9902717B-D473-4C4C-BD56-0A1D1459D334}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10914,7 +10886,7 @@
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -10961,195 +10933,195 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
         <v>1E-8</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>6.4431514823809201E-5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6">
         <v>6.5360604299286796E-5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>161</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="7">
         <v>1</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="7">
         <v>2.8301291465759202</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="7">
         <v>1.1926587258157899</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="7">
         <v>0.92444671151560698</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="7">
         <v>0.44247916830393202</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="7">
         <v>0.80853171916553301</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="7">
         <v>0.39424643239444002</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="7">
         <v>0.64299297332763605</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="7">
         <v>0.62487483024597101</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="5">
         <v>8.9708728790283203</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="5">
         <v>8.7450828552246094</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="3" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
         <v>1E-8</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>6.4462700422154704E-5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>6.4785968092148801E-5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <v>162</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="7">
         <v>3.8451366424560498</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="7">
         <v>1.4282985993116699</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="7">
         <v>1.22297392005287</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="7">
         <v>0.51191431375620799</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="7">
         <v>1.0713677990507799</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="7">
         <v>0.45444053348443603</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="7">
         <v>0.63758277893066395</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="7">
         <v>0.61534690856933505</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="5">
         <v>9.0626969337463308</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="5">
         <v>8.8228499889373708</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
         <v>1E-8</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>6.4737486100057098E-5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>6.4151582495121097E-5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>163</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="7">
         <v>4.6905527114868102</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="7">
         <v>1.85464960963897</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="7">
         <v>1.47188917455391</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="7">
         <v>0.63760015928997804</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="7">
         <v>1.2899372936058</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="7">
         <v>0.56158481205216104</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="7">
         <v>0.64853811264037997</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="7">
         <v>0.63982582092285101</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="5">
         <v>8.9323766231536794</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="5">
         <v>8.6767082214355398</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
         <v>1E-8</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="6">
         <v>6.4676151067639303E-5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>6.4530810630729203E-5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>164</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="7">
         <v>2.9171185493469198</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="7">
         <v>1.05035883786554</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="7">
         <v>0.95004324685701302</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="7">
         <v>0.39995409461881498</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="7">
         <v>0.83132059832021898</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="7">
         <v>0.35706211255071602</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="7">
         <v>0.64260292053222601</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="7">
         <v>0.61711931228637695</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="5">
         <v>8.9219818115234304</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="5">
         <v>8.6567699909210205</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -11196,7 +11168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -11243,7 +11215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -11290,7 +11262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -11337,7 +11309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -11384,7 +11356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -11431,7 +11403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -11478,7 +11450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -11525,7 +11497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -11572,7 +11544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -11619,7 +11591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -11666,7 +11638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -11713,7 +11685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1E-4</v>
       </c>
@@ -11760,7 +11732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1E-4</v>
       </c>
@@ -11807,7 +11779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1E-4</v>
       </c>
@@ -11854,7 +11826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1E-4</v>
       </c>
@@ -11901,7 +11873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1E-3</v>
       </c>
@@ -11948,7 +11920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1E-3</v>
       </c>
@@ -11995,7 +11967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1E-3</v>
       </c>
@@ -12042,7 +12014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1E-3</v>
       </c>
@@ -12089,7 +12061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>0.01</v>
       </c>
@@ -12136,7 +12108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>0.01</v>
       </c>
@@ -12183,7 +12155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>0.01</v>
       </c>
@@ -12230,7 +12202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>0.01</v>
       </c>
@@ -12277,7 +12249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>0.1</v>
       </c>
@@ -12324,7 +12296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>0.1</v>
       </c>
@@ -12371,7 +12343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>0.1</v>
       </c>
@@ -12418,7 +12390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>0.1</v>
       </c>
@@ -12465,69 +12437,69 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+    <row r="35" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>1E-8</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="8">
         <f t="shared" ref="B35:O42" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-35)*4,0,4,1))</f>
         <v>6.457696310341508E-5</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>6.4707241379321481E-5</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>162.5</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>3.5707342624664253</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>1.3814914431579923</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>1.14233826324485</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0.49798693399223326</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>1.0002893525355829</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0.44183347262043832</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0.6429291963577265</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0.62429171800613348</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N35" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>8.9719820618629402</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>8.7253527641296351</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <f t="shared" ref="A36:O42" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>9.9999999999999995E-8</v>
@@ -12589,7 +12561,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>9.9999999999999995E-7</v>
@@ -12651,7 +12623,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>1.0000000000000001E-5</v>
@@ -12713,7 +12685,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>1E-4</v>
@@ -12775,7 +12747,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>1E-3</v>
@@ -12837,7 +12809,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>0.01</v>
@@ -12899,7 +12871,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>0.1</v>
@@ -12961,25 +12933,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="4"/>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C43" s="4">
         <f ca="1">MIN(C35:C42)</f>
         <v>6.4707241379321481E-5</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -12988,7 +12950,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13000,7 +12962,7 @@
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -13047,195 +13009,195 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
         <v>1E-8</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>6.71188464230966E-5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6">
         <v>6.8457697086566203E-5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>193</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="7">
         <v>0.25</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="7">
         <v>12.537158012390099</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
         <v>1E-8</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>6.8181382185355903E-5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>6.8337318496444204E-5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <v>194</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="7">
         <v>0.25</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="7">
         <v>11.687501907348601</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="G3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
         <v>1E-8</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>6.7658406399633694E-5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>6.7352295484445805E-5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>195</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
         <v>0.25</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="7">
         <v>12.764726638793899</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="G4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
         <v>1E-8</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="6">
         <v>6.6725238905340195E-5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>6.7493160732989593E-5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>196</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
         <v>0.25</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="7">
         <v>11.7016258239746</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -13282,7 +13244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -13329,7 +13291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -13376,7 +13338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -13423,7 +13385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -13470,7 +13432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -13517,7 +13479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -13564,7 +13526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -13611,7 +13573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -13658,7 +13620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -13705,7 +13667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -13752,7 +13714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -13799,7 +13761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1E-4</v>
       </c>
@@ -13846,7 +13808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1E-4</v>
       </c>
@@ -13893,7 +13855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1E-4</v>
       </c>
@@ -13940,7 +13902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1E-4</v>
       </c>
@@ -13987,7 +13949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1E-3</v>
       </c>
@@ -14034,7 +13996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1E-3</v>
       </c>
@@ -14081,7 +14043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1E-3</v>
       </c>
@@ -14128,7 +14090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1E-3</v>
       </c>
@@ -14175,7 +14137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>0.01</v>
       </c>
@@ -14222,7 +14184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>0.01</v>
       </c>
@@ -14269,7 +14231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>0.01</v>
       </c>
@@ -14316,7 +14278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>0.01</v>
       </c>
@@ -14363,7 +14325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>0.1</v>
       </c>
@@ -14410,7 +14372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>0.1</v>
       </c>
@@ -14457,7 +14419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>0.1</v>
       </c>
@@ -14504,7 +14466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>0.1</v>
       </c>
@@ -14551,7 +14513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>1E-8</v>
@@ -14560,7 +14522,7 @@
         <f t="shared" ref="B35:O42" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-35)*4,0,4,1))</f>
         <v>6.7420968478356595E-5</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>6.7910117950111448E-5</v>
       </c>
@@ -14613,7 +14575,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <f t="shared" ref="A36:O42" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>9.9999999999999995E-8</v>
@@ -14622,7 +14584,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>6.7452351241298176E-5</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>6.7941683889156127E-5</v>
       </c>
@@ -14675,7 +14637,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>9.9999999999999995E-7</v>
@@ -14684,7 +14646,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>6.755933984405075E-5</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>6.7927419277498749E-5</v>
       </c>
@@ -14737,7 +14699,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>1.0000000000000001E-5</v>
@@ -14746,7 +14708,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>6.8351732129775977E-5</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>6.7937162471702904E-5</v>
       </c>
@@ -14799,7 +14761,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>1E-4</v>
@@ -14808,7 +14770,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>7.6624611926703445E-5</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>6.8010159754928017E-5</v>
       </c>
@@ -14861,7 +14823,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>1E-3</v>
@@ -14870,7 +14832,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1.5437643829268027E-4</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>7.1588318676615281E-5</v>
       </c>
@@ -14923,7 +14885,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>0.01</v>
@@ -14932,7 +14894,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>7.0638694732940354E-4</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>3.6959395367104728E-4</v>
       </c>
@@ -14985,7 +14947,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>0.1</v>
@@ -14994,7 +14956,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1.1180838902215841E-3</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>8.2489763828678053E-4</v>
       </c>
@@ -15047,22 +15009,11 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="4"/>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C43" s="4">
         <f ca="1">MIN(C35:C42)</f>
         <v>6.7910117950111448E-5</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15074,7 +15025,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15086,7 +15037,7 @@
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -15133,7 +15084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1E-8</v>
       </c>
@@ -15180,7 +15131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1E-8</v>
       </c>
@@ -15227,7 +15178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1E-8</v>
       </c>
@@ -15274,7 +15225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1E-8</v>
       </c>
@@ -15321,7 +15272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -15368,7 +15319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -15415,7 +15366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -15462,7 +15413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -15509,195 +15460,195 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="10" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <v>6.6490826166626195E-5</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <v>6.73720692538289E-5</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="5">
         <v>233</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="7">
         <v>0.5</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="7">
         <v>13.3895769119262</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="G10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="6">
         <v>6.6828164872663798E-5</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <v>6.6753448257433304E-5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="5">
         <v>234</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="7">
         <v>0.5</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="7">
         <v>12.6116933822631</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="G11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="6">
         <v>6.6372939688741798E-5</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="6">
         <v>6.5882284113111798E-5</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="5">
         <v>235</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="7">
         <v>0.5</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="7">
         <v>14.3980588912963</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="G12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="6">
         <v>6.6020150273849999E-5</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="6">
         <v>6.6214806367420197E-5</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="5">
         <v>236</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="7">
         <v>0.5</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="7">
         <v>12.3974552154541</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -15744,7 +15695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -15791,7 +15742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -15838,7 +15789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -15885,7 +15836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1E-4</v>
       </c>
@@ -15932,7 +15883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1E-4</v>
       </c>
@@ -15979,7 +15930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1E-4</v>
       </c>
@@ -16026,7 +15977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1E-4</v>
       </c>
@@ -16073,7 +16024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1E-3</v>
       </c>
@@ -16120,7 +16071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1E-3</v>
       </c>
@@ -16167,7 +16118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1E-3</v>
       </c>
@@ -16214,7 +16165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1E-3</v>
       </c>
@@ -16261,7 +16212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>0.01</v>
       </c>
@@ -16308,7 +16259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>0.01</v>
       </c>
@@ -16355,7 +16306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>0.01</v>
       </c>
@@ -16402,7 +16353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>0.01</v>
       </c>
@@ -16449,7 +16400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>0.1</v>
       </c>
@@ -16496,7 +16447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>0.1</v>
       </c>
@@ -16543,7 +16494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>0.1</v>
       </c>
@@ -16590,7 +16541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>0.1</v>
       </c>
@@ -16637,7 +16588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>1E-8</v>
@@ -16646,7 +16597,7 @@
         <f t="shared" ref="B35:O42" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-35)*4,0,4,1))</f>
         <v>6.6375356695100432E-5</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>6.6615851065239873E-5</v>
       </c>
@@ -16699,7 +16650,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <f t="shared" ref="A36:O42" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>9.9999999999999995E-8</v>
@@ -16708,7 +16659,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>6.6400000010384828E-5</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>6.6608059462831668E-5</v>
       </c>
@@ -16761,7 +16712,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>9.9999999999999995E-7</v>
@@ -16770,7 +16721,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>6.6428020250470458E-5</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>6.6555651997948553E-5</v>
       </c>
@@ -16823,7 +16774,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>1.0000000000000001E-5</v>
@@ -16832,7 +16783,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>6.7330522495738293E-5</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>6.662317661934174E-5</v>
       </c>
@@ -16885,7 +16836,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>1E-4</v>
@@ -16894,7 +16845,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>7.5189593659122161E-5</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>6.6649217736065755E-5</v>
       </c>
@@ -16947,7 +16898,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>1E-3</v>
@@ -16956,7 +16907,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1.5412488408478601E-4</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>7.0075619155528628E-5</v>
       </c>
@@ -17009,7 +16960,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>0.01</v>
@@ -17018,7 +16969,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>7.0104929317436578E-4</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>3.4085158876358853E-4</v>
       </c>
@@ -17071,7 +17022,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>0.1</v>
@@ -17080,7 +17031,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>8.2166499913078088E-4</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>8.2509940182988256E-4</v>
       </c>
@@ -17133,22 +17084,11 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="4"/>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C43" s="4">
         <f ca="1">MIN(C35:C42)</f>
         <v>6.6555651997948553E-5</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17159,8 +17099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55E0C2B-C766-7C43-9790-D95441714A70}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17172,7 +17112,7 @@
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -17219,7 +17159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1E-8</v>
       </c>
@@ -17266,7 +17206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1E-8</v>
       </c>
@@ -17313,7 +17253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1E-8</v>
       </c>
@@ -17360,7 +17300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1E-8</v>
       </c>
@@ -17407,7 +17347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -17454,7 +17394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -17501,7 +17441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -17548,7 +17488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -17595,7 +17535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -17642,7 +17582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -17689,7 +17629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -17736,7 +17676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -17783,195 +17723,195 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="14" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="6">
         <v>6.6556506644701498E-5</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="6">
         <v>6.6400460824258894E-5</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="5">
         <v>269</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="7">
         <v>1</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="7">
         <v>17.1264114379882</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="7">
         <v>4.5805299459389097</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="7">
         <v>5.1279692159207197</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="7">
         <v>1.44029369281592</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="7">
         <v>4.5054034405777097</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="7">
         <v>1.26167295141811</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="7">
         <v>0.63054490089416504</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="7">
         <v>0.61649203300475997</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="5">
         <v>8.8877019882202095</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="5">
         <v>8.6825180053710902</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="15" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="6">
         <v>6.6504657045394802E-5</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="6">
         <v>6.5883638718390806E-5</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="5">
         <v>270</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="7">
         <v>1</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="7">
         <v>15.9565420150756</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="7">
         <v>3.2193804256476599</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="7">
         <v>4.7827958527869496</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="7">
         <v>1.03889667052423</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="7">
         <v>4.20378445411062</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="7">
         <v>0.91059885528097195</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="7">
         <v>0.62711429595947199</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="7">
         <v>0.63925027847289995</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="5">
         <v>9.0205330848693794</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="5">
         <v>8.7932429313659597</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row r="16" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="6">
         <v>6.6540299652842805E-5</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="6">
         <v>6.4886900060067006E-5</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="5">
         <v>271</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="7">
         <v>1</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="7">
         <v>19.468683242797798</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="7">
         <v>4.3387800458440697</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="7">
         <v>5.8158114307457698</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="7">
         <v>1.3686011628714201</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="7">
         <v>5.1106918144062599</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="7">
         <v>1.1988640390974801</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="7">
         <v>0.63108491897582997</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="7">
         <v>0.61016392707824696</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="5">
         <v>8.9821670055389404</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="5">
         <v>8.6462218761444092</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+    <row r="17" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="6">
         <v>6.6560681822011204E-5</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="6">
         <v>6.5387270413029495E-5</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="5">
         <v>272</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="7">
         <v>1</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="7">
         <v>15.294612884521401</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="7">
         <v>3.64609588648131</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="7">
         <v>4.5893962545623204</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="7">
         <v>1.1654879571652901</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="7">
         <v>4.0306153967860201</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="7">
         <v>1.01889821430395</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="7">
         <v>0.65003871917724598</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="7">
         <v>0.60668015480041504</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="5">
         <v>8.9034948348999006</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="5">
         <v>8.7230138778686506</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1E-4</v>
       </c>
@@ -18018,7 +17958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1E-4</v>
       </c>
@@ -18065,7 +18005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1E-4</v>
       </c>
@@ -18112,7 +18052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1E-4</v>
       </c>
@@ -18159,7 +18099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1E-3</v>
       </c>
@@ -18206,7 +18146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1E-3</v>
       </c>
@@ -18253,7 +18193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1E-3</v>
       </c>
@@ -18300,7 +18240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1E-3</v>
       </c>
@@ -18347,7 +18287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>0.01</v>
       </c>
@@ -18394,7 +18334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>0.01</v>
       </c>
@@ -18441,7 +18381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>0.01</v>
       </c>
@@ -18488,7 +18428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>0.01</v>
       </c>
@@ -18535,7 +18475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>0.1</v>
       </c>
@@ -18582,7 +18522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>0.1</v>
       </c>
@@ -18629,7 +18569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>0.1</v>
       </c>
@@ -18676,7 +18616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>0.1</v>
       </c>
@@ -18723,7 +18663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>1E-8</v>
@@ -18732,7 +18672,7 @@
         <f t="shared" ref="B35:O42" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-35)*4,0,4,1))</f>
         <v>6.5674415753164773E-5</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>6.5689379116133195E-5</v>
       </c>
@@ -18785,7 +18725,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <f t="shared" ref="A36:O42" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-35)*4,0,4,1))</f>
         <v>9.9999999999999995E-8</v>
@@ -18794,7 +18734,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>6.5717032281099771E-5</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>6.5690851471949727E-5</v>
       </c>
@@ -18847,7 +18787,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>9.9999999999999995E-7</v>
@@ -18856,7 +18796,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>6.57963951695516E-5</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>6.5678628966162048E-5</v>
       </c>
@@ -18909,69 +18849,69 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+    <row r="38" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>6.654053629123757E-5</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>6.5639567503936557E-5</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>270.5</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>16.961562395095751</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>3.9461965759779876</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>5.0789931885039401</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>1.253319870844215</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>4.4626237764701528</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>1.097508515025128</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0.63469570875167824</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>0.61814659833908048</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>8.948474228382107</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O38" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>8.711249172687527</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>1E-4</v>
@@ -18980,7 +18920,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>7.4686178675619828E-5</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>6.5808864476027916E-5</v>
       </c>
@@ -19033,7 +18973,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>1E-3</v>
@@ -19042,7 +18982,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1.5281848402325175E-4</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>6.90142107119522E-5</v>
       </c>
@@ -19095,7 +19035,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>0.01</v>
@@ -19104,7 +19044,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>7.1991119341691914E-4</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>3.3046036735461827E-4</v>
       </c>
@@ -19157,7 +19097,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>0.1</v>
@@ -19166,7 +19106,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>8.2306537082574001E-4</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>8.2510426836187331E-4</v>
       </c>
@@ -19219,22 +19159,11 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="4"/>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C43" s="4">
         <f ca="1">MIN(C35:C42)</f>
         <v>6.5639567503936557E-5</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/eg3 adavanced.xlsx
+++ b/eg3 adavanced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB495627-C15C-6544-9CD5-E37808882F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCB2365-8FE5-2C4E-BC2E-D3985314FE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" activeTab="8" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
@@ -104,8 +104,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -149,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -159,6 +160,8 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4645,8 +4648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C910F4E5-1871-5D44-A4D1-B4921F11A929}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4654,8 +4657,9 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="3" width="10.83203125" style="4"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="13" width="10.83203125" style="3"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="10.83203125" style="3"/>
+    <col min="6" max="15" width="10.83203125" style="10"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -4674,34 +4678,34 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4721,34 +4725,34 @@
       <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="10">
         <v>0.24390242993831601</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="G2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4768,34 +4772,34 @@
       <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="10">
         <v>0.24390242993831601</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="G3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4815,34 +4819,34 @@
       <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="10">
         <v>0.24390242993831601</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="1" t="s">
+      <c r="G4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4862,34 +4866,34 @@
       <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="10">
         <v>0.24390242993831601</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="G5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4909,34 +4913,34 @@
       <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="10">
         <v>0.48780485987663202</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="G6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4956,34 +4960,34 @@
       <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="10">
         <v>0.48780485987663202</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7" s="1" t="s">
+      <c r="G7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5003,34 +5007,34 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="10">
         <v>0.48780485987663202</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O8" s="1" t="s">
+      <c r="G8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5050,34 +5054,34 @@
       <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="10">
         <v>0.48780485987663202</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O9" s="1" t="s">
+      <c r="G9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5097,34 +5101,34 @@
       <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="9">
         <v>0.97560971975326505</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="G10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="9">
         <v>0.37897525259877102</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="7">
+      <c r="I10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="9">
         <v>0.33830002716931201</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="7">
+      <c r="K10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="9">
         <v>0.63180804252624501</v>
       </c>
-      <c r="M10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="5">
+      <c r="M10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="9">
         <v>9.0555951595306396</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5144,34 +5148,34 @@
       <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="9">
         <v>0.97560971975326505</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="G11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="9">
         <v>0.378955554660656</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="7">
+      <c r="I11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="9">
         <v>0.33821347377451799</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="7">
+      <c r="K11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="9">
         <v>0.63227510452270497</v>
       </c>
-      <c r="M11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="5">
+      <c r="M11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="9">
         <v>8.9711711406707693</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5191,34 +5195,34 @@
       <c r="E12" s="7">
         <v>1</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="9">
         <v>0.97560971975326505</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="G12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="9">
         <v>0.37847591189319701</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="I12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="9">
         <v>0.338173165202166</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="7">
+      <c r="K12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="9">
         <v>0.63200592994689897</v>
       </c>
-      <c r="M12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="5">
+      <c r="M12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="9">
         <v>9.1032040119171107</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5238,34 +5242,34 @@
       <c r="E13" s="7">
         <v>1</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="9">
         <v>0.97560971975326505</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="G13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="9">
         <v>0.37838264599094601</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="7">
+      <c r="I13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="9">
         <v>0.33839085347207898</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="7">
+      <c r="K13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="9">
         <v>0.65960621833801203</v>
       </c>
-      <c r="M13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13" s="5">
+      <c r="M13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="9">
         <v>8.9056792259216309</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5285,34 +5289,34 @@
       <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="10">
         <v>1.9512194395065301</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O14" s="1" t="s">
+      <c r="G14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5332,34 +5336,34 @@
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="10">
         <v>1.9512194395065301</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O15" s="1" t="s">
+      <c r="G15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5379,34 +5383,34 @@
       <c r="E16" s="3">
         <v>1</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="10">
         <v>1.9512194395065301</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O16" s="1" t="s">
+      <c r="G16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5426,34 +5430,34 @@
       <c r="E17" s="3">
         <v>1</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="10">
         <v>1.9512194395065301</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O17" s="1" t="s">
+      <c r="G17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O17" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5473,34 +5477,34 @@
       <c r="E18" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="10">
         <v>3.9024388790130602</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O18" s="1" t="s">
+      <c r="G18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5520,34 +5524,34 @@
       <c r="E19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="10">
         <v>3.9024388790130602</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O19" s="1" t="s">
+      <c r="G19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5567,34 +5571,34 @@
       <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="10">
         <v>3.9024388790130602</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O20" s="1" t="s">
+      <c r="G20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5614,34 +5618,34 @@
       <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="10">
         <v>3.9024388790130602</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O21" s="1" t="s">
+      <c r="G21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O21" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5661,34 +5665,34 @@
       <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="10">
         <v>7.8048777580261204</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O22" s="1" t="s">
+      <c r="G22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O22" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5708,34 +5712,34 @@
       <c r="E23" s="3">
         <v>1</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="10">
         <v>7.8048777580261204</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O23" s="1" t="s">
+      <c r="G23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O23" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5755,34 +5759,34 @@
       <c r="E24" s="3">
         <v>1</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="10">
         <v>7.8048777580261204</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O24" s="1" t="s">
+      <c r="G24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O24" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5802,34 +5806,34 @@
       <c r="E25" s="3">
         <v>1</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="10">
         <v>7.8048777580261204</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O25" s="1" t="s">
+      <c r="G25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O25" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5849,34 +5853,34 @@
       <c r="E26" s="3">
         <v>1</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="10">
         <v>15.6097555160522</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O26" s="1" t="s">
+      <c r="G26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O26" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5896,34 +5900,34 @@
       <c r="E27" s="3">
         <v>1</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="10">
         <v>15.6097555160522</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O27" s="1" t="s">
+      <c r="G27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O27" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5943,34 +5947,34 @@
       <c r="E28" s="3">
         <v>1</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="10">
         <v>15.6097555160522</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O28" s="1" t="s">
+      <c r="G28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O28" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5990,34 +5994,34 @@
       <c r="E29" s="3">
         <v>1</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="10">
         <v>15.6097555160522</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O29" s="1" t="s">
+      <c r="G29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O29" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6037,34 +6041,34 @@
       <c r="E30" s="3">
         <v>1</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="10">
         <v>31.2195110321044</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O30" s="1" t="s">
+      <c r="G30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O30" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6084,34 +6088,34 @@
       <c r="E31" s="3">
         <v>1</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="10">
         <v>31.2195110321044</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O31" s="1" t="s">
+      <c r="G31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O31" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6131,34 +6135,34 @@
       <c r="E32" s="3">
         <v>1</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="10">
         <v>31.2195110321044</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O32" s="1" t="s">
+      <c r="G32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O32" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6178,34 +6182,34 @@
       <c r="E33" s="3">
         <v>1</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="10">
         <v>31.2195110321044</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O33" s="1" t="s">
+      <c r="G33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O33" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6230,43 +6234,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>0.24390242993831601</v>
       </c>
-      <c r="G35" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J35" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K35" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L35" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M35" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N35" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O35" s="1" t="e">
+      <c r="G35" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L35" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N35" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O35" s="10" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -6292,43 +6296,43 @@
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="10">
         <f t="shared" ca="1" si="1"/>
         <v>0.48780485987663202</v>
       </c>
-      <c r="G36" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J36" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K36" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L36" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M36" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N36" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O36" s="1" t="e">
+      <c r="G36" s="10" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="10" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="10" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="10" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="10" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L36" s="10" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" s="10" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N36" s="10" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O36" s="10" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -6354,43 +6358,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>0.97560971975326505</v>
       </c>
-      <c r="G37" s="5" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="5">
+      <c r="G37" s="9" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>0.37869734128589255</v>
       </c>
-      <c r="I37" s="5" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J37" s="5">
+      <c r="I37" s="9" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>0.33826937990451872</v>
       </c>
-      <c r="K37" s="5" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L37" s="5">
+      <c r="K37" s="9" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L37" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>0.63892382383346524</v>
       </c>
-      <c r="M37" s="5" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N37" s="5">
+      <c r="M37" s="9" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>9.0089123845100367</v>
       </c>
-      <c r="O37" s="5" t="e">
+      <c r="O37" s="9" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -6416,43 +6420,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>1.9512194395065301</v>
       </c>
-      <c r="G38" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H38" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J38" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K38" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L38" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M38" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N38" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O38" s="1" t="e">
+      <c r="G38" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K38" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L38" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N38" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O38" s="10" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -6478,43 +6482,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>3.9024388790130602</v>
       </c>
-      <c r="G39" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H39" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J39" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K39" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L39" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M39" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N39" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O39" s="1" t="e">
+      <c r="G39" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J39" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K39" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L39" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N39" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O39" s="10" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -6540,43 +6544,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>7.8048777580261204</v>
       </c>
-      <c r="G40" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H40" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J40" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K40" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L40" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M40" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N40" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O40" s="1" t="e">
+      <c r="G40" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J40" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K40" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L40" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N40" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O40" s="10" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -6602,43 +6606,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>15.6097555160522</v>
       </c>
-      <c r="G41" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H41" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J41" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K41" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L41" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M41" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N41" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O41" s="1" t="e">
+      <c r="G41" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J41" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K41" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L41" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M41" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N41" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O41" s="10" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -6664,43 +6668,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>31.2195110321044</v>
       </c>
-      <c r="G42" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H42" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J42" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K42" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L42" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M42" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N42" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O42" s="1" t="e">
+      <c r="G42" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H42" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I42" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J42" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K42" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L42" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M42" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N42" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O42" s="10" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -10874,7 +10878,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10882,8 +10886,9 @@
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="3" width="10.83203125" style="4"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="13" width="10.83203125" style="3"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="10.83203125" style="3"/>
+    <col min="6" max="15" width="10.83203125" style="10"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -10902,34 +10907,34 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10949,34 +10954,34 @@
       <c r="E2" s="7">
         <v>1</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="9">
         <v>2.8301291465759202</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="9">
         <v>1.1926587258157899</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="9">
         <v>0.92444671151560698</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="9">
         <v>0.44247916830393202</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="9">
         <v>0.80853171916553301</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="9">
         <v>0.39424643239444002</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="9">
         <v>0.64299297332763605</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="9">
         <v>0.62487483024597101</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="9">
         <v>8.9708728790283203</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="9">
         <v>8.7450828552246094</v>
       </c>
     </row>
@@ -10996,34 +11001,34 @@
       <c r="E3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="9">
         <v>3.8451366424560498</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="9">
         <v>1.4282985993116699</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="9">
         <v>1.22297392005287</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="9">
         <v>0.51191431375620799</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="9">
         <v>1.0713677990507799</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="9">
         <v>0.45444053348443603</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="9">
         <v>0.63758277893066395</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="9">
         <v>0.61534690856933505</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="9">
         <v>9.0626969337463308</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="9">
         <v>8.8228499889373708</v>
       </c>
     </row>
@@ -11043,34 +11048,34 @@
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="9">
         <v>4.6905527114868102</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="9">
         <v>1.85464960963897</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="9">
         <v>1.47188917455391</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="9">
         <v>0.63760015928997804</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="9">
         <v>1.2899372936058</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="9">
         <v>0.56158481205216104</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="9">
         <v>0.64853811264037997</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="9">
         <v>0.63982582092285101</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="9">
         <v>8.9323766231536794</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="9">
         <v>8.6767082214355398</v>
       </c>
     </row>
@@ -11090,34 +11095,34 @@
       <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="9">
         <v>2.9171185493469198</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="9">
         <v>1.05035883786554</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="9">
         <v>0.95004324685701302</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="9">
         <v>0.39995409461881498</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="9">
         <v>0.83132059832021898</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="9">
         <v>0.35706211255071602</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="9">
         <v>0.64260292053222601</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="9">
         <v>0.61711931228637695</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="9">
         <v>8.9219818115234304</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="9">
         <v>8.6567699909210205</v>
       </c>
     </row>
@@ -11137,34 +11142,34 @@
       <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="10">
         <v>1.01320540904998</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="G6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11184,34 +11189,34 @@
       <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="10">
         <v>1.39413833618164</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7" s="1" t="s">
+      <c r="G7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11231,34 +11236,34 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="10">
         <v>1.4645470380782999</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O8" s="1" t="s">
+      <c r="G8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11278,34 +11283,34 @@
       <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="10">
         <v>1.0068953037261901</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O9" s="1" t="s">
+      <c r="G9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11325,34 +11330,34 @@
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="10">
         <v>0.50191736221313399</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O10" s="1" t="s">
+      <c r="G10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11372,34 +11377,34 @@
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="10">
         <v>0.61252868175506503</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="1" t="s">
+      <c r="G11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11419,34 +11424,34 @@
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="10">
         <v>0.57761555910110396</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O12" s="1" t="s">
+      <c r="G12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11466,34 +11471,34 @@
       <c r="E13" s="3">
         <v>1</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="10">
         <v>0.54375600814819303</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O13" s="1" t="s">
+      <c r="G13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11513,34 +11518,34 @@
       <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="10">
         <v>1.61020718514919E-2</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O14" s="1" t="s">
+      <c r="G14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11560,34 +11565,34 @@
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="10">
         <v>0.27769729495048501</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O15" s="1" t="s">
+      <c r="G15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11607,34 +11612,34 @@
       <c r="E16" s="3">
         <v>1</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="10">
         <v>0.52418315410614003</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O16" s="1" t="s">
+      <c r="G16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11654,34 +11659,34 @@
       <c r="E17" s="3">
         <v>1</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="10">
         <v>0.286598980426788</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O17" s="1" t="s">
+      <c r="G17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O17" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11701,34 +11706,34 @@
       <c r="E18" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="10">
         <v>1.4379773288965199E-2</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O18" s="1" t="s">
+      <c r="G18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11748,34 +11753,34 @@
       <c r="E19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="10">
         <v>0.75224280357360795</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O19" s="1" t="s">
+      <c r="G19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11795,34 +11800,34 @@
       <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="10">
         <v>0.69764959812164296</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O20" s="1" t="s">
+      <c r="G20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11842,34 +11847,34 @@
       <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="10">
         <v>2.7551789116841902E-6</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O21" s="1" t="s">
+      <c r="G21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O21" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11889,34 +11894,34 @@
       <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="10">
         <v>1.43237868323922E-2</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O22" s="1" t="s">
+      <c r="G22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O22" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11936,34 +11941,34 @@
       <c r="E23" s="3">
         <v>1</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="10">
         <v>0.75224280357360795</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O23" s="1" t="s">
+      <c r="G23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O23" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11983,34 +11988,34 @@
       <c r="E24" s="3">
         <v>1</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="10">
         <v>0.69764959812164296</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O24" s="1" t="s">
+      <c r="G24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O24" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -12030,34 +12035,34 @@
       <c r="E25" s="3">
         <v>1</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="10">
         <v>2.6699951831687898E-6</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O25" s="1" t="s">
+      <c r="G25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O25" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -12077,34 +12082,34 @@
       <c r="E26" s="3">
         <v>1</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="10">
         <v>1.43177704885602E-2</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O26" s="1" t="s">
+      <c r="G26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O26" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -12124,34 +12129,34 @@
       <c r="E27" s="3">
         <v>1</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="10">
         <v>0.75224280357360795</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O27" s="1" t="s">
+      <c r="G27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O27" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -12171,34 +12176,34 @@
       <c r="E28" s="3">
         <v>1</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="10">
         <v>0.69764959812164296</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O28" s="1" t="s">
+      <c r="G28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O28" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -12218,34 +12223,34 @@
       <c r="E29" s="3">
         <v>1</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="10">
         <v>2.6618349693308102E-6</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O29" s="1" t="s">
+      <c r="G29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O29" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -12265,34 +12270,34 @@
       <c r="E30" s="3">
         <v>1</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="10">
         <v>1.43171995878219E-2</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O30" s="1" t="s">
+      <c r="G30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O30" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -12312,34 +12317,34 @@
       <c r="E31" s="3">
         <v>1</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="10">
         <v>0.75224280357360795</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O31" s="1" t="s">
+      <c r="G31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O31" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -12359,34 +12364,34 @@
       <c r="E32" s="3">
         <v>1</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="10">
         <v>0.69764959812164296</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O32" s="1" t="s">
+      <c r="G32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O32" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -12406,34 +12411,34 @@
       <c r="E33" s="3">
         <v>1</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="10">
         <v>2.6610225631884498E-6</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O33" s="1" t="s">
+      <c r="G33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O33" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -12458,43 +12463,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>3.5707342624664253</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>1.3814914431579923</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>1.14233826324485</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>0.49798693399223326</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J35" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>1.0002893525355829</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>0.44183347262043832</v>
       </c>
-      <c r="L35" s="8">
+      <c r="L35" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>0.6429291963577265</v>
       </c>
-      <c r="M35" s="8">
+      <c r="M35" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>0.62429171800613348</v>
       </c>
-      <c r="N35" s="8">
+      <c r="N35" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>8.9719820618629402</v>
       </c>
-      <c r="O35" s="8">
+      <c r="O35" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>8.7253527641296351</v>
       </c>
@@ -12520,43 +12525,43 @@
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="10">
         <f t="shared" ca="1" si="1"/>
         <v>1.2196965217590274</v>
       </c>
-      <c r="G36" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J36" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K36" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L36" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M36" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N36" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O36" s="2" t="e">
+      <c r="G36" s="10" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="10" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="10" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="10" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="10" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L36" s="10" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" s="10" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N36" s="10" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O36" s="10" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -12582,43 +12587,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>0.55895440280437392</v>
       </c>
-      <c r="G37" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J37" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K37" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L37" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M37" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N37" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O37" s="2" t="e">
+      <c r="G37" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L37" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O37" s="10" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -12644,43 +12649,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>0.27614537533372624</v>
       </c>
-      <c r="G38" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H38" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J38" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K38" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L38" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M38" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N38" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O38" s="2" t="e">
+      <c r="G38" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K38" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L38" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N38" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O38" s="10" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -12706,43 +12711,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>0.36606873254078198</v>
       </c>
-      <c r="G39" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H39" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J39" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K39" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L39" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M39" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N39" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O39" s="2" t="e">
+      <c r="G39" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J39" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K39" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L39" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N39" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O39" s="10" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -12768,43 +12773,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>0.3660547146307066</v>
       </c>
-      <c r="G40" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H40" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J40" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K40" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L40" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M40" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N40" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O40" s="2" t="e">
+      <c r="G40" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J40" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K40" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L40" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N40" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O40" s="10" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -12830,43 +12835,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>0.36605320850469514</v>
       </c>
-      <c r="G41" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H41" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J41" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K41" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L41" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M41" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N41" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O41" s="2" t="e">
+      <c r="G41" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J41" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K41" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L41" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M41" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N41" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O41" s="10" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -12892,43 +12897,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>0.36605306557640899</v>
       </c>
-      <c r="G42" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H42" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J42" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K42" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L42" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M42" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N42" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O42" s="2" t="e">
+      <c r="G42" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H42" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I42" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J42" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K42" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L42" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M42" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N42" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O42" s="10" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -17099,8 +17104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55E0C2B-C766-7C43-9790-D95441714A70}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17108,8 +17113,9 @@
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="3" width="10.83203125" style="4"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="13" width="10.83203125" style="3"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="10.83203125" style="3"/>
+    <col min="6" max="15" width="10.83203125" style="10"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -17128,34 +17134,34 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -17175,34 +17181,34 @@
       <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="10">
         <v>15.9155740737915</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="G2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -17222,34 +17228,34 @@
       <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="10">
         <v>16.2439270019531</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="G3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -17269,34 +17275,34 @@
       <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="10">
         <v>19.085329055786101</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="1" t="s">
+      <c r="G4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -17316,34 +17322,34 @@
       <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="10">
         <v>16.006425857543899</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="G5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -17363,34 +17369,34 @@
       <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="10">
         <v>15.5673732757568</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="G6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -17410,34 +17416,34 @@
       <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="10">
         <v>15.282654762268001</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7" s="1" t="s">
+      <c r="G7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -17457,34 +17463,34 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="10">
         <v>19.051296234130799</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O8" s="1" t="s">
+      <c r="G8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -17504,34 +17510,34 @@
       <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="10">
         <v>16.0064487457275</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O9" s="1" t="s">
+      <c r="G9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -17551,34 +17557,34 @@
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="10">
         <v>16.8348293304443</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O10" s="1" t="s">
+      <c r="G10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -17598,34 +17604,34 @@
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="10">
         <v>15.536593437194799</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="1" t="s">
+      <c r="G11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -17645,34 +17651,34 @@
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="10">
         <v>19.1095790863037</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O12" s="1" t="s">
+      <c r="G12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -17692,34 +17698,34 @@
       <c r="E13" s="3">
         <v>1</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="10">
         <v>14.551306724548301</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O13" s="1" t="s">
+      <c r="G13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -17739,34 +17745,34 @@
       <c r="E14" s="7">
         <v>1</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="9">
         <v>17.1264114379882</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="9">
         <v>4.5805299459389097</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="9">
         <v>5.1279692159207197</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="9">
         <v>1.44029369281592</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="9">
         <v>4.5054034405777097</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="9">
         <v>1.26167295141811</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="9">
         <v>0.63054490089416504</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="9">
         <v>0.61649203300475997</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="9">
         <v>8.8877019882202095</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="9">
         <v>8.6825180053710902</v>
       </c>
     </row>
@@ -17786,34 +17792,34 @@
       <c r="E15" s="7">
         <v>1</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="9">
         <v>15.9565420150756</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="9">
         <v>3.2193804256476599</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="9">
         <v>4.7827958527869496</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="9">
         <v>1.03889667052423</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="9">
         <v>4.20378445411062</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="9">
         <v>0.91059885528097195</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="9">
         <v>0.62711429595947199</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="9">
         <v>0.63925027847289995</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="9">
         <v>9.0205330848693794</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="9">
         <v>8.7932429313659597</v>
       </c>
     </row>
@@ -17833,34 +17839,34 @@
       <c r="E16" s="7">
         <v>1</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="9">
         <v>19.468683242797798</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="9">
         <v>4.3387800458440697</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="9">
         <v>5.8158114307457698</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="9">
         <v>1.3686011628714201</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="9">
         <v>5.1106918144062599</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="9">
         <v>1.1988640390974801</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="9">
         <v>0.63108491897582997</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="9">
         <v>0.61016392707824696</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="9">
         <v>8.9821670055389404</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="9">
         <v>8.6462218761444092</v>
       </c>
     </row>
@@ -17880,34 +17886,34 @@
       <c r="E17" s="7">
         <v>1</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="9">
         <v>15.294612884521401</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="9">
         <v>3.64609588648131</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="9">
         <v>4.5893962545623204</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="9">
         <v>1.1654879571652901</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="9">
         <v>4.0306153967860201</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="9">
         <v>1.01889821430395</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="9">
         <v>0.65003871917724598</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="9">
         <v>0.60668015480041504</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="9">
         <v>8.9034948348999006</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="9">
         <v>8.7230138778686506</v>
       </c>
     </row>
@@ -17927,34 +17933,34 @@
       <c r="E18" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="10">
         <v>15.192795753479</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O18" s="1" t="s">
+      <c r="G18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -17974,34 +17980,34 @@
       <c r="E19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="10">
         <v>14.7441291809082</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O19" s="1" t="s">
+      <c r="G19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18021,34 +18027,34 @@
       <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="10">
         <v>20.045783996581999</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O20" s="1" t="s">
+      <c r="G20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18068,34 +18074,34 @@
       <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="10">
         <v>14.658551216125399</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O21" s="1" t="s">
+      <c r="G21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O21" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18115,34 +18121,34 @@
       <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="10">
         <v>15.9138469696044</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O22" s="1" t="s">
+      <c r="G22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O22" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18162,34 +18168,34 @@
       <c r="E23" s="3">
         <v>1</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="10">
         <v>14.680279731750399</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O23" s="1" t="s">
+      <c r="G23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O23" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18209,34 +18215,34 @@
       <c r="E24" s="3">
         <v>1</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="10">
         <v>16.835365295410099</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O24" s="1" t="s">
+      <c r="G24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O24" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18256,34 +18262,34 @@
       <c r="E25" s="3">
         <v>1</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="10">
         <v>13.5844974517822</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O25" s="1" t="s">
+      <c r="G25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O25" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18303,34 +18309,34 @@
       <c r="E26" s="3">
         <v>1</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="10">
         <v>10.3337793350219</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O26" s="1" t="s">
+      <c r="G26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O26" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18350,34 +18356,34 @@
       <c r="E27" s="3">
         <v>1</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="10">
         <v>9.8850040435790998</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O27" s="1" t="s">
+      <c r="G27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O27" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18397,34 +18403,34 @@
       <c r="E28" s="3">
         <v>1</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="10">
         <v>18.0521545410156</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O28" s="1" t="s">
+      <c r="G28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O28" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18444,34 +18450,34 @@
       <c r="E29" s="3">
         <v>1</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="10">
         <v>10.7087869644165</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O29" s="1" t="s">
+      <c r="G29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O29" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18491,34 +18497,34 @@
       <c r="E30" s="3">
         <v>1</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="10">
         <v>3.0641341209411599</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O30" s="1" t="s">
+      <c r="G30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O30" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18538,34 +18544,34 @@
       <c r="E31" s="3">
         <v>1</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="10">
         <v>3.34042167663574</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O31" s="1" t="s">
+      <c r="G31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O31" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18585,34 +18591,34 @@
       <c r="E32" s="3">
         <v>1</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="10">
         <v>2.8002457618713299</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O32" s="1" t="s">
+      <c r="G32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O32" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18632,34 +18638,34 @@
       <c r="E33" s="3">
         <v>1</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="10">
         <v>2.8934054374694802</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O33" s="1" t="s">
+      <c r="G33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O33" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18684,43 +18690,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>16.812813997268652</v>
       </c>
-      <c r="G35" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J35" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K35" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L35" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M35" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N35" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O35" s="2" t="e">
+      <c r="G35" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L35" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N35" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O35" s="10" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -18746,43 +18752,43 @@
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="10">
         <f t="shared" ca="1" si="1"/>
         <v>16.476943254470775</v>
       </c>
-      <c r="G36" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J36" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K36" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L36" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M36" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N36" s="2" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O36" s="2" t="e">
+      <c r="G36" s="10" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="10" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="10" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="10" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="10" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L36" s="10" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" s="10" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N36" s="10" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O36" s="10" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -18808,43 +18814,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>16.508077144622774</v>
       </c>
-      <c r="G37" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J37" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K37" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L37" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M37" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N37" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O37" s="2" t="e">
+      <c r="G37" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L37" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O37" s="10" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -18870,43 +18876,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>16.961562395095751</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>3.9461965759779876</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>5.0789931885039401</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>1.253319870844215</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J38" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>4.4626237764701528</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K38" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>1.097508515025128</v>
       </c>
-      <c r="L38" s="8">
+      <c r="L38" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>0.63469570875167824</v>
       </c>
-      <c r="M38" s="8">
+      <c r="M38" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>0.61814659833908048</v>
       </c>
-      <c r="N38" s="8">
+      <c r="N38" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>8.948474228382107</v>
       </c>
-      <c r="O38" s="8">
+      <c r="O38" s="9">
         <f t="shared" ca="1" si="0"/>
         <v>8.711249172687527</v>
       </c>
@@ -18932,43 +18938,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>16.16031503677365</v>
       </c>
-      <c r="G39" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H39" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J39" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K39" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L39" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M39" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N39" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O39" s="2" t="e">
+      <c r="G39" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J39" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K39" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L39" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N39" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O39" s="10" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -18994,43 +19000,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>15.253497362136773</v>
       </c>
-      <c r="G40" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H40" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J40" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K40" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L40" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M40" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N40" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O40" s="2" t="e">
+      <c r="G40" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J40" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K40" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L40" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N40" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O40" s="10" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -19056,43 +19062,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>12.244931221008276</v>
       </c>
-      <c r="G41" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H41" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J41" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K41" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L41" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M41" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N41" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O41" s="2" t="e">
+      <c r="G41" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J41" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K41" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L41" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M41" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N41" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O41" s="10" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -19118,43 +19124,43 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="10">
         <f t="shared" ca="1" si="0"/>
         <v>3.0245517492294276</v>
       </c>
-      <c r="G42" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H42" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J42" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K42" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L42" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M42" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N42" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O42" s="2" t="e">
+      <c r="G42" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H42" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I42" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J42" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K42" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L42" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M42" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N42" s="10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O42" s="10" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -19167,5 +19173,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>